--- a/biology/Botanique/Sundacarpus_amarus/Sundacarpus_amarus.xlsx
+++ b/biology/Botanique/Sundacarpus_amarus/Sundacarpus_amarus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sundacarpus amarus est un arbre à feuilles persistantes du genre Sundacarpus et de la famille des Podocarpaceae. Elle est la seule espèce de son genre.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sundacarpus amarus peut atteindre une hauteur de 10 à 60 m et un diamètre à hauteur de poitrine de 12 à 140 cm. Les petits bourgeons foliaires sphériques sont protégés par des écailles de 2 mm de long. Les feuilles sont dans la phase juvénile de 4 à 20 mm de long, avec un pétiole de 3 à 5 mm de long et une pointe de 20 mm de long. Les plantes plus âgées ont des feuilles plus longues d'environ 5 à 15 cm de long et de 6 à 14 mm de large.
 Les cônes mâles ont une longueur de 15 à 35 mm et un diamètre de 2,5 à 3,5 mm. Les graines ont un diamètre de 20 mm. Les cotylédons sont trois paires.
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sundacarpus amarus se trouve en Australie, la côte nord-est du Queensland (principalement le plateau d'Atherton sur des sols basaltiques à 600 à 1 200 m mètres), la Nouvelle-Guinée, les Moluques (Buru, Halmahera, Morotai) et les Petites îles de la Sonde (Timor, Florès, ouest de Sumbawa, Lombok), à travers Java, Sulawesi du Sud, les Philippines (Mindanao, Luçon), à Bornéo seulement à Sabah, à Sumatra.
 </t>
@@ -574,7 +590,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Sundacarpus amarus » (voir la liste des auteurs).</t>
         </is>
